--- a/data/trans_dic/Q20C_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q20C_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,64; 87,01</t>
+          <t>12,33; 86,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,14</t>
+          <t>0,0; 82,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,03; 58,27</t>
+          <t>9,34; 54,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +750,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 86,18</t>
+          <t>0,0; 85,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,12 +765,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,91; 74,74</t>
+          <t>8,72; 68,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,2; 74,63</t>
+          <t>13,87; 73,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 51,08</t>
+          <t>10,59; 52,32</t>
         </is>
       </c>
     </row>
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,56</t>
+          <t>0,0; 60,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,31</t>
+          <t>0,0; 38,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +910,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,28</t>
+          <t>0,0; 82,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 65,22</t>
+          <t>7,61; 61,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,06</t>
+          <t>0,0; 29,52</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,53</t>
+          <t>0,0; 71,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 49,13</t>
+          <t>6,52; 52,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,7</t>
+          <t>0,0; 50,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,47; 54,08</t>
+          <t>8,91; 56,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 83,87</t>
+          <t>14,75; 83,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,37</t>
+          <t>0,0; 79,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 85,94</t>
+          <t>11,08; 75,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,74</t>
+          <t>0,0; 51,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,38; 54,96</t>
+          <t>13,87; 56,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 45,95</t>
+          <t>4,82; 44,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,78; 53,5</t>
+          <t>15,44; 56,28</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,59</t>
+          <t>0,0; 43,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,05</t>
+          <t>0,0; 26,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,92; 60,83</t>
+          <t>11,65; 56,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,24</t>
+          <t>0,0; 45,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,18; 61,72</t>
+          <t>8,22; 62,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,4; 57,99</t>
+          <t>6,88; 56,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,93; 61,22</t>
+          <t>8,09; 62,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 53,23</t>
+          <t>5,93; 51,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 40,22</t>
+          <t>8,31; 42,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 29,61</t>
+          <t>5,52; 29,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,49; 50,58</t>
+          <t>16,66; 51,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 37,79</t>
+          <t>6,71; 38,79</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 55,95</t>
+          <t>7,54; 58,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,7 +1300,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,38; 77,01</t>
+          <t>18,49; 75,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1310,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,77; 42,18</t>
+          <t>7,81; 41,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,0; 68,41</t>
+          <t>17,51; 66,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,78; 40,29</t>
+          <t>6,93; 40,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,5</t>
+          <t>0,0; 40,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,21; 39,08</t>
+          <t>12,32; 40,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,57; 50,65</t>
+          <t>14,89; 52,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,4; 49,66</t>
+          <t>17,17; 49,69</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,29; 49,17</t>
+          <t>10,43; 49,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 37,16</t>
+          <t>4,5; 38,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,36</t>
+          <t>0,0; 40,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,31</t>
+          <t>0,0; 29,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,97; 50,74</t>
+          <t>10,11; 47,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 40,52</t>
+          <t>4,47; 38,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,86; 51,45</t>
+          <t>5,98; 49,78</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,43</t>
+          <t>0,0; 42,7</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,49; 44,76</t>
+          <t>14,05; 43,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,52; 32,28</t>
+          <t>9,37; 30,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,01; 35,68</t>
+          <t>11,87; 38,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,44; 38,93</t>
+          <t>17,12; 40,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,32; 30,56</t>
+          <t>8,14; 30,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,42; 37,67</t>
+          <t>17,96; 37,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,25; 39,03</t>
+          <t>16,52; 39,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,93; 29,21</t>
+          <t>10,71; 29,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,24; 31,22</t>
+          <t>13,61; 30,44</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16,95; 31,65</t>
+          <t>17,01; 32,48</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,23; 33,82</t>
+          <t>16,72; 33,58</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,64; 31,19</t>
+          <t>16,15; 30,93</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con mayor tiempo de espera (más de 7 meses) para ser hopitalizado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3793</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3074</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5204</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>903; 6337</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4993</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1771</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1247; 7310</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1274</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6359</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1413</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1634</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>888; 6982</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1874; 9904</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1881</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1678; 8287</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2031</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2224</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2224</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1094</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 980</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4005</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1164</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1472</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4396</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5064</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3055</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1580</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5072</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>942; 7664</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4011</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1853</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3777</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3708</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3060</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1853</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6837</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2971</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4685</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>966; 7855</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5531</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1193; 7519</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1245</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>935; 5319</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4426</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>484; 3305</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4770</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2935; 12037</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>792; 7339</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2741; 9991</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1047</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6095</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1855</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4246</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4060</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5537</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10155</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3882</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5339</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5807</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2170; 10606</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5895</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>971; 7394</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1035; 8556</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1024; 7919</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>527; 4606</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1990; 10128</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2031; 10967</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5214; 16112</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1471; 8505</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3451</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4962</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6323</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6964</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2555</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9774</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6964</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7517</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3616</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1007; 7789</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1691</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2003; 8174</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1665</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2177; 11664</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2919; 11144</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>889; 5144</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5427</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5078; 16515</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3694; 13090</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4060; 11750</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1088</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5013</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3036</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5013</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4086</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3074</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>852</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 680</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2099</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>249; 1088</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>119; 521</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1937; 9110</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>902; 7665</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5939</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1605</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1967; 9285</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>991; 8633</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>932; 7764</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2561</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8870</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>11456</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>11143</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>14839</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>8690</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>21962</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>16019</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>7872</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>17560</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>33418</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>27161</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>22711</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4680; 14587</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>5604; 18409</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6087; 19857</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>9714; 22730</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3990; 14723</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>14580; 30653</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>9952; 23784</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4499; 12351</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>11208; 25061</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>23978; 45776</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>18642; 37453</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>15953; 30547</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/Q20C_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q20C_R2-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
